--- a/Code/Results/Cases/Case_2_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98305741934495</v>
+        <v>12.73493403024474</v>
       </c>
       <c r="C2">
-        <v>14.59629386902801</v>
+        <v>9.341912471161857</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.34579893449983</v>
+        <v>11.59650481190773</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.0606043062518</v>
+        <v>3.602027665198992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.12854760652661</v>
+        <v>14.48695727445525</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.23631524184337</v>
+        <v>17.82169455400742</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.62426119927362</v>
+        <v>12.07281554817309</v>
       </c>
       <c r="C3">
-        <v>13.77873276536774</v>
+        <v>8.919560778995537</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.76252630571618</v>
+        <v>11.52645985979907</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.066686789993399</v>
+        <v>3.604208836831901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.95463061044448</v>
+        <v>14.16670987279553</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.32417816715046</v>
+        <v>17.96004501333924</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74259043019909</v>
+        <v>11.64735031185373</v>
       </c>
       <c r="C4">
-        <v>13.25230711131126</v>
+        <v>8.648664134182619</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.40564992561628</v>
+        <v>11.48852497756657</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.070519491318841</v>
+        <v>3.605617137558023</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.19554074895175</v>
+        <v>13.96911603980379</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.4049210154108</v>
+        <v>18.05209657827689</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37135548837682</v>
+        <v>11.46938119765977</v>
       </c>
       <c r="C5">
-        <v>13.03173423219406</v>
+        <v>8.535466857338998</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.26072176492461</v>
+        <v>11.4743536280604</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.072106941528995</v>
+        <v>3.60620845323629</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.87653175734649</v>
+        <v>13.88846814038596</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.44407245988277</v>
+        <v>18.09138340818261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30898984229654</v>
+        <v>11.43955799623797</v>
       </c>
       <c r="C6">
-        <v>12.99474621292505</v>
+        <v>8.516504531842267</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.2366928746729</v>
+        <v>11.47207853141475</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.072372108744937</v>
+        <v>3.606307694683303</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.82297533949531</v>
+        <v>13.87507238016601</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.45093676681253</v>
+        <v>18.09801384050647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73763223750637</v>
+        <v>11.64496849020826</v>
       </c>
       <c r="C7">
-        <v>13.24935673824066</v>
+        <v>8.647148721440065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.4036930740877</v>
+        <v>11.48832863164641</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.070540795392765</v>
+        <v>3.605625041631954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.19127769628638</v>
+        <v>13.96802875330765</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.40542436753969</v>
+        <v>18.0526192418134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52434855106471</v>
+        <v>12.51065514380649</v>
       </c>
       <c r="C8">
-        <v>14.31952000439227</v>
+        <v>9.198745151714244</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.14452816314968</v>
+        <v>11.57130834745978</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.062681785286659</v>
+        <v>3.602765436251643</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.73169966848168</v>
+        <v>14.37680305569937</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.26075259606557</v>
+        <v>17.86791658999276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.65462895398237</v>
+        <v>14.05212923173297</v>
       </c>
       <c r="C9">
-        <v>16.22134382647062</v>
+        <v>10.18478481584275</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.60077398438651</v>
+        <v>11.77362792893048</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.048002414028681</v>
+        <v>3.597703010243848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.45128106864201</v>
+        <v>15.16594648511836</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.21159896595914</v>
+        <v>17.56258997138859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.73085911198365</v>
+        <v>15.08312123276345</v>
       </c>
       <c r="C10">
-        <v>17.49646230307108</v>
+        <v>10.84674326838678</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.87841463390257</v>
+        <v>11.9453462303883</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.037595001913834</v>
+        <v>3.59431232533761</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.27049231453348</v>
+        <v>15.73199131910986</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.3475956796737</v>
+        <v>17.37364497244184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.62792432443117</v>
+        <v>15.52915474062648</v>
       </c>
       <c r="C11">
-        <v>18.04993799526302</v>
+        <v>11.13366300713865</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.46204078848921</v>
+        <v>12.02819788305429</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.032925645414953</v>
+        <v>3.592840391007122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.06053911371509</v>
+        <v>15.98532714841199</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.45255674066982</v>
+        <v>17.29552595441872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.96089968143988</v>
+        <v>15.69469410363464</v>
       </c>
       <c r="C12">
-        <v>18.25571407086414</v>
+        <v>11.24022642424641</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.68071401699678</v>
+        <v>12.06022628350726</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.031165313472003</v>
+        <v>3.59229308610443</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.35443375184252</v>
+        <v>16.08056961442065</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.49891481479995</v>
+        <v>17.26708378992211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.8894849027909</v>
+        <v>15.6591926837949</v>
       </c>
       <c r="C13">
-        <v>18.21156581196572</v>
+        <v>11.21736951256154</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.63372023566432</v>
+        <v>12.05329974038984</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.031544108551994</v>
+        <v>3.592410510343055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.2913710699573</v>
+        <v>16.06008954389522</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.48863066155122</v>
+        <v>17.27315841012333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.65545258198472</v>
+        <v>15.54284148396159</v>
       </c>
       <c r="C14">
-        <v>18.06694363727219</v>
+        <v>11.14247208994231</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.48007708584169</v>
+        <v>12.03081992582532</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.032780673547766</v>
+        <v>3.592795162098619</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.08482308626514</v>
+        <v>15.99317714253003</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.45623594635649</v>
+        <v>17.29316307946312</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.51122838605752</v>
+        <v>15.47113335272292</v>
       </c>
       <c r="C15">
-        <v>17.97786229920124</v>
+        <v>11.09632232219911</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.38566669405246</v>
+        <v>12.01713477136864</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.033539081098021</v>
+        <v>3.593032084135693</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.9576226896714</v>
+        <v>15.95209884420472</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.43726571791633</v>
+        <v>17.30556535529002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.67128748648898</v>
+        <v>15.05350418987891</v>
       </c>
       <c r="C16">
-        <v>17.45975695178111</v>
+        <v>10.82770255970685</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.83993900276217</v>
+        <v>11.94002473641378</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.037901338752416</v>
+        <v>3.59440993383925</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.21811554498282</v>
+        <v>15.7153434910567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.34163997866926</v>
+        <v>17.37890899947833</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.14393000396602</v>
+        <v>14.79137166711551</v>
       </c>
       <c r="C17">
-        <v>17.1351100713229</v>
+        <v>10.65924023479195</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.5008470540721</v>
+        <v>11.89391480806212</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.040593072400084</v>
+        <v>3.595273219642264</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.75492063566731</v>
+        <v>15.5689685914175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.29432477063158</v>
+        <v>17.42591868611324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.83613802995905</v>
+        <v>14.63844067136333</v>
       </c>
       <c r="C18">
-        <v>16.9458782724618</v>
+        <v>10.56100985282031</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.30418637528269</v>
+        <v>11.86784111255613</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.042147504347242</v>
+        <v>3.595776398287347</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.484963713525</v>
+        <v>15.48439108622179</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.27114469172007</v>
+        <v>17.45369388157662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.73115448712376</v>
+        <v>14.58629206651637</v>
       </c>
       <c r="C19">
-        <v>16.88137759748864</v>
+        <v>10.52752285622135</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.23731783512193</v>
+        <v>11.85909065399687</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.04267491976404</v>
+        <v>3.595947907916867</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.39294968788371</v>
+        <v>15.45569111614201</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.26397579126499</v>
+        <v>17.46322416742918</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.20053006298968</v>
+        <v>14.81950008198776</v>
       </c>
       <c r="C20">
-        <v>17.16992836396452</v>
+        <v>10.67731187795455</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.53711114969425</v>
+        <v>11.89877716060595</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.040305899660066</v>
+        <v>3.595180634623812</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.80459404122668</v>
+        <v>15.58459114089139</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.29894085161782</v>
+        <v>17.42083810620744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.7243752219016</v>
+        <v>15.57710836812272</v>
       </c>
       <c r="C21">
-        <v>18.10952602305565</v>
+        <v>11.16452822484586</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.52526795439381</v>
+        <v>12.03740525757947</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.032417263950284</v>
+        <v>3.5926819072866</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.14563351112979</v>
+        <v>16.01285037315263</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.46556856962657</v>
+        <v>17.28725618124058</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.68115576574113</v>
+        <v>16.05262231484438</v>
       </c>
       <c r="C22">
-        <v>18.70139497672668</v>
+        <v>11.47077346847118</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.15756319715713</v>
+        <v>12.13180674388927</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.027306556186487</v>
+        <v>3.591107601009016</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.99137410685676</v>
+        <v>16.28868071133488</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.61316214722176</v>
+        <v>17.20660269402184</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.17405136779966</v>
+        <v>15.80064437621179</v>
       </c>
       <c r="C23">
-        <v>18.3875293223588</v>
+        <v>11.3084514461858</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.82128266299481</v>
+        <v>12.08108448553497</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.030030653514046</v>
+        <v>3.591942479393298</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.54275412838994</v>
+        <v>16.14186526260201</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.53072467452383</v>
+        <v>17.24903602787394</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.17495553360957</v>
+        <v>14.80679015912716</v>
       </c>
       <c r="C24">
-        <v>17.15419507539944</v>
+        <v>10.66914598049675</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.52072149499616</v>
+        <v>11.89657753242009</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.040435708794546</v>
+        <v>3.59522247092439</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.78214810331362</v>
+        <v>15.57752950182717</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.29684142566498</v>
+        <v>17.42313270516409</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.84740396062758</v>
+        <v>13.65257189137662</v>
       </c>
       <c r="C25">
-        <v>15.7282171965074</v>
+        <v>9.928752274866834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.20721426051707</v>
+        <v>11.71475604060269</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.051901978268135</v>
+        <v>3.59901454351951</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.74736382825413</v>
+        <v>14.95445135508748</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.19671528095014</v>
+        <v>17.63902782226981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_66/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.73493403024474</v>
+        <v>20.98305741934492</v>
       </c>
       <c r="C2">
-        <v>9.341912471161857</v>
+        <v>14.59629386902802</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.59650481190773</v>
+        <v>11.34579893449982</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.602027665198992</v>
+        <v>2.060604306251935</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.48695727445525</v>
+        <v>18.1285476065266</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.82169455400742</v>
+        <v>11.23631524184339</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.07281554817309</v>
+        <v>19.6242611992736</v>
       </c>
       <c r="C3">
-        <v>8.919560778995537</v>
+        <v>13.7787327653678</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.52645985979907</v>
+        <v>10.7625263057162</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.604208836831901</v>
+        <v>2.0666867899934</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.16670987279553</v>
+        <v>16.95463061044448</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.96004501333924</v>
+        <v>11.32417816715043</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.64735031185373</v>
+        <v>18.74259043019923</v>
       </c>
       <c r="C4">
-        <v>8.648664134182619</v>
+        <v>13.25230711131118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.48852497756657</v>
+        <v>10.40564992561633</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.605617137558023</v>
+        <v>2.070519491318842</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.96911603980379</v>
+        <v>16.19554074895179</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.05209657827689</v>
+        <v>11.40492101541081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46938119765977</v>
+        <v>18.37135548837682</v>
       </c>
       <c r="C5">
-        <v>8.535466857338998</v>
+        <v>13.03173423219401</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.4743536280604</v>
+        <v>10.26072176492459</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.60620845323629</v>
+        <v>2.072106941528727</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.88846814038596</v>
+        <v>15.8765317573465</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.09138340818261</v>
+        <v>11.44407245988282</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.43955799623797</v>
+        <v>18.30898984229657</v>
       </c>
       <c r="C6">
-        <v>8.516504531842267</v>
+        <v>12.99474621292496</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.47207853141475</v>
+        <v>10.23669287467289</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.606307694683303</v>
+        <v>2.072372108744938</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.87507238016601</v>
+        <v>15.8229753394953</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.09801384050647</v>
+        <v>11.45093676681239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.64496849020826</v>
+        <v>18.73763223750641</v>
       </c>
       <c r="C7">
-        <v>8.647148721440065</v>
+        <v>13.24935673824079</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.48832863164641</v>
+        <v>10.40369307408775</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.605625041631954</v>
+        <v>2.070540795392764</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.96802875330765</v>
+        <v>16.19127769628637</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.0526192418134</v>
+        <v>11.40542436753958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51065514380649</v>
+        <v>20.52434855106475</v>
       </c>
       <c r="C8">
-        <v>9.198745151714244</v>
+        <v>14.31952000439228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.57130834745978</v>
+        <v>11.14452816314971</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.602765436251643</v>
+        <v>2.062681785286791</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.37680305569937</v>
+        <v>17.73169966848167</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.86791658999276</v>
+        <v>11.26075259606556</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.05212923173297</v>
+        <v>23.65462895398251</v>
       </c>
       <c r="C9">
-        <v>10.18478481584275</v>
+        <v>16.22134382647064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.77362792893048</v>
+        <v>12.60077398438652</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.597703010243848</v>
+        <v>2.048002414028812</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.16594648511836</v>
+        <v>20.45128106864207</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.56258997138859</v>
+        <v>11.21159896595893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08312123276345</v>
+        <v>25.73085911198362</v>
       </c>
       <c r="C10">
-        <v>10.84674326838678</v>
+        <v>17.49646230307108</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.9453462303883</v>
+        <v>13.87841463390252</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.59431232533761</v>
+        <v>2.037595001913834</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.73199131910986</v>
+        <v>22.27049231453345</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.37364497244184</v>
+        <v>11.34759567967371</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.52915474062648</v>
+        <v>26.62792432443115</v>
       </c>
       <c r="C11">
-        <v>11.13366300713865</v>
+        <v>18.04993799526315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.02819788305429</v>
+        <v>14.46204078848924</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.592840391007122</v>
+        <v>2.032925645414953</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.98532714841199</v>
+        <v>23.0605391137151</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.29552595441872</v>
+        <v>11.4525567406698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.69469410363464</v>
+        <v>26.96089968143981</v>
       </c>
       <c r="C12">
-        <v>11.24022642424641</v>
+        <v>18.25571407086406</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.06022628350726</v>
+        <v>14.68071401699679</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.59229308610443</v>
+        <v>2.03116531347227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.08056961442065</v>
+        <v>23.35443375184247</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.26708378992211</v>
+        <v>11.4989148148</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.6591926837949</v>
+        <v>26.88948490279078</v>
       </c>
       <c r="C13">
-        <v>11.21736951256154</v>
+        <v>18.2115658119658</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.05329974038984</v>
+        <v>14.6337202356643</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.592410510343055</v>
+        <v>2.031544108552128</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.06008954389522</v>
+        <v>23.29137106995724</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.27315841012333</v>
+        <v>11.48863066155133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.54284148396159</v>
+        <v>26.65545258198467</v>
       </c>
       <c r="C14">
-        <v>11.14247208994231</v>
+        <v>18.06694363727213</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.03081992582532</v>
+        <v>14.4800770858417</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.592795162098619</v>
+        <v>2.032780673547899</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.99317714253003</v>
+        <v>23.08482308626515</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.29316307946312</v>
+        <v>11.45623594635654</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.47113335272292</v>
+        <v>26.51122838605755</v>
       </c>
       <c r="C15">
-        <v>11.09632232219911</v>
+        <v>17.97786229920113</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.01713477136864</v>
+        <v>14.38566669405242</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.593032084135693</v>
+        <v>2.033539081098286</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.95209884420472</v>
+        <v>22.95762268967137</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.30556535529002</v>
+        <v>11.43726571791635</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05350418987891</v>
+        <v>25.67128748648912</v>
       </c>
       <c r="C16">
-        <v>10.82770255970685</v>
+        <v>17.45975695178111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.94002473641378</v>
+        <v>13.83993900276217</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.59440993383925</v>
+        <v>2.037901338752548</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.7153434910567</v>
+        <v>22.21811554498288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.37890899947833</v>
+        <v>11.34163997866911</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.79137166711551</v>
+        <v>25.14393000396604</v>
       </c>
       <c r="C17">
-        <v>10.65924023479195</v>
+        <v>17.13511007132294</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.89391480806212</v>
+        <v>13.5008470540721</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.595273219642264</v>
+        <v>2.040593072399949</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.5689685914175</v>
+        <v>21.75492063566733</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.42591868611324</v>
+        <v>11.2943247706315</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.63844067136333</v>
+        <v>24.83613802995898</v>
       </c>
       <c r="C18">
-        <v>10.56100985282031</v>
+        <v>16.94587827246174</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.86784111255613</v>
+        <v>13.30418637528267</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.595776398287347</v>
+        <v>2.042147504346975</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.48439108622179</v>
+        <v>21.48496371352492</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.45369388157662</v>
+        <v>11.27114469172021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.58629206651637</v>
+        <v>24.73115448712372</v>
       </c>
       <c r="C19">
-        <v>10.52752285622135</v>
+        <v>16.88137759748857</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.85909065399687</v>
+        <v>13.23731783512191</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.595947907916867</v>
+        <v>2.042674919764172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.45569111614201</v>
+        <v>21.39294968788369</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.46322416742918</v>
+        <v>11.26397579126505</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.81950008198776</v>
+        <v>25.20053006298971</v>
       </c>
       <c r="C20">
-        <v>10.67731187795455</v>
+        <v>17.16992836396451</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.89877716060595</v>
+        <v>13.53711114969422</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.595180634623812</v>
+        <v>2.040305899660066</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.58459114089139</v>
+        <v>21.80459404122668</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.42083810620744</v>
+        <v>11.29894085161778</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.57710836812272</v>
+        <v>26.72437522190159</v>
       </c>
       <c r="C21">
-        <v>11.16452822484586</v>
+        <v>18.10952602305558</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.03740525757947</v>
+        <v>14.52526795439383</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.5926819072866</v>
+        <v>2.032417263950149</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.01285037315263</v>
+        <v>23.14563351112979</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.28725618124058</v>
+        <v>11.46556856962662</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.05262231484438</v>
+        <v>27.68115576574127</v>
       </c>
       <c r="C22">
-        <v>11.47077346847118</v>
+        <v>18.7013949767266</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.13180674388927</v>
+        <v>15.15756319715718</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.591107601009016</v>
+        <v>2.027306556186352</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.28868071133488</v>
+        <v>23.99137410685685</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.20660269402184</v>
+        <v>11.61316214722166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80064437621179</v>
+        <v>27.1740513677997</v>
       </c>
       <c r="C23">
-        <v>11.3084514461858</v>
+        <v>18.38752932235873</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.08108448553497</v>
+        <v>14.82128266299478</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.591942479393298</v>
+        <v>2.030030653514314</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.14186526260201</v>
+        <v>23.54275412838994</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.24903602787394</v>
+        <v>11.53072467452376</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.80679015912716</v>
+        <v>25.17495553360956</v>
       </c>
       <c r="C24">
-        <v>10.66914598049675</v>
+        <v>17.1541950753996</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.89657753242009</v>
+        <v>13.52072149499618</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.59522247092439</v>
+        <v>2.04043570879468</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.57752950182717</v>
+        <v>21.78214810331366</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.42313270516409</v>
+        <v>11.29684142566493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.65257189137662</v>
+        <v>22.84740396062758</v>
       </c>
       <c r="C25">
-        <v>9.928752274866834</v>
+        <v>15.72821719650732</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.71475604060269</v>
+        <v>12.20721426051706</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.59901454351951</v>
+        <v>2.051901978268134</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.95445135508748</v>
+        <v>19.7473638282541</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.63902782226981</v>
+        <v>11.19671528095011</v>
       </c>
     </row>
   </sheetData>
